--- a/output/aggregate_tables/Analysis Group Statistics/Area 47_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 47_summary.xlsx
@@ -1534,17 +1534,39 @@
       <c r="M4" s="4" t="n">
         <v>41.9753086419753</v>
       </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+      <c r="N4" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>59.45945945945946</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>40.54054054054054</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>59.45945945945946</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>40.54054054054054</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1663,34 +1685,34 @@
         </is>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.07767035</v>
+        <v>0.07798750943301688</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.498202320644142</v>
+        <v>0.4983266613974121</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.7368861793558579</v>
+        <v>0.7387939608088114</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.575872670644142</v>
+        <v>0.576314170830429</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.7368861793558579</v>
+        <v>0.7387939608088114</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.916574091273504</v>
+        <v>5.930121452127889</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.95078743092397</v>
+        <v>37.89244773175144</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>56.13263847780252</v>
+        <v>56.17743081612067</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>43.86736152219747</v>
+        <v>43.82256918387932</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>56.13263847780252</v>
+        <v>56.17743081612067</v>
       </c>
     </row>
   </sheetData>
@@ -1811,31 +1833,31 @@
         <v>0.06033043</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.488795370644142</v>
+        <v>0.488770275644142</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.477508648446767</v>
+        <v>0.478062650776672</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.5491258006441421</v>
+        <v>0.5491007056441422</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.477508648446767</v>
+        <v>0.478062650776672</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.876524994210252</v>
+        <v>5.87349905181815</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>47.61143278184102</v>
+        <v>47.58447354929783</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>46.51204222394873</v>
+        <v>46.54202739888402</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>53.48795777605127</v>
+        <v>53.45797260111598</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>46.51204222394873</v>
+        <v>46.54202739888402</v>
       </c>
     </row>
     <row r="5">
@@ -1843,34 +1865,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="n">
-        <v>0.01733992</v>
+        <v>0.01765707943301688</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.00358693</v>
+        <v>0.003736365753270042</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>0.01847079090909091</v>
+        <v>0.01966077847886939</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>0.02092685</v>
+        <v>0.02139344518628692</v>
       </c>
       <c r="F5" s="11" t="n">
-        <v>0.01847079090909091</v>
+        <v>0.01966077847886939</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>44.01258450984778</v>
+        <v>43.00916655258264</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.104428380056442</v>
+        <v>9.101050804770628</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>46.88298711009576</v>
+        <v>47.88978264264671</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>53.11701288990422</v>
+        <v>52.11021735735327</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>46.88298711009576</v>
+        <v>47.88978264264671</v>
       </c>
     </row>
     <row r="6">
@@ -1884,28 +1906,28 @@
         <v>0.00582002</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.24090674</v>
+        <v>0.24107053155327</v>
       </c>
       <c r="E6" s="13" t="n">
         <v>0.00582002</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.24090674</v>
+        <v>0.24107053155327</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.358892890256412</v>
+        <v>2.357327959042714</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>97.6411071097436</v>
+        <v>97.64267204095729</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.358892890256412</v>
+        <v>2.357327959042714</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>97.6411071097436</v>
+        <v>97.64267204095729</v>
       </c>
     </row>
     <row r="7">
@@ -1915,34 +1937,34 @@
         </is>
       </c>
       <c r="B7" s="11" t="n">
-        <v>0.07767035</v>
+        <v>0.07798750943301688</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.498202320644142</v>
+        <v>0.4983266613974121</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.7368861793558579</v>
+        <v>0.7387939608088114</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.575872670644142</v>
+        <v>0.576314170830429</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.7368861793558579</v>
+        <v>0.7387939608088114</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.916574091273504</v>
+        <v>5.930121452127889</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>37.95078743092397</v>
+        <v>37.89244773175144</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>56.13263847780252</v>
+        <v>56.17743081612067</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>43.86736152219747</v>
+        <v>43.82256918387932</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>56.13263847780252</v>
+        <v>56.17743081612067</v>
       </c>
     </row>
   </sheetData>
@@ -2062,19 +2084,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.916574091273504</v>
+        <v>5.930121452127889</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>37.95078743092397</v>
+        <v>37.89244773175144</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>56.13263847780252</v>
+        <v>56.17743081612067</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>43.86736152219747</v>
+        <v>43.82256918387932</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>56.13263847780252</v>
+        <v>56.17743081612067</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 47_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 47_summary.xlsx
@@ -2102,16 +2102,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>76.6714706378159</v>
+        <v>76.69005133838554</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.32852936218411</v>
+        <v>23.30994866161446</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>76.6714706378159</v>
+        <v>76.69005133838554</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>23.32852936218411</v>
+        <v>23.30994866161446</v>
       </c>
     </row>
   </sheetData>
